--- a/総合テスト/2. カート機能/ST-C-0016_結果.xlsx
+++ b/総合テスト/2. カート機能/ST-C-0016_結果.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Desktop\Cart総合結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA411E-23B2-4661-BF5D-F4E8D55FD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFD78FD-3B56-4E53-B57F-69C1E2A35D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{D79F4811-AACA-4039-B91F-FBD7AA8617A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="APIレスポンス" sheetId="1" r:id="rId1"/>
-    <sheet name="カートモーダル" sheetId="2" r:id="rId2"/>
+    <sheet name="STC-0016_1" sheetId="1" r:id="rId1"/>
+    <sheet name="STC-0016_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
